--- a/보고서일괄출력수정점검20251015.xlsx
+++ b/보고서일괄출력수정점검20251015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\sidogeumgo_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF5EA5D-9029-42AA-966B-267CCB209E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC486A7A-661D-41C3-8628-AD7029811E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4D6E4B18-F73F-4344-AD99-4F6DBCA7B3CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>타구청</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>보고서3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계양구청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,6 +304,270 @@
         <a:xfrm>
           <a:off x="685800" y="26403300"/>
           <a:ext cx="14594337" cy="5753903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>554537</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>58240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE03FDA7-07DC-36CF-52E0-CBCCBC5DFC91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="32899350"/>
+          <a:ext cx="14956337" cy="7811590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>668797</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>67377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FBCA6A-DCCA-D55E-4F47-B8F046C79E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487650" y="27098625"/>
+          <a:ext cx="14670547" cy="5029902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>335416</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>143905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820593E8-B618-9CCD-CFBB-FEEAF8259192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15789088" y="33640059"/>
+          <a:ext cx="14622916" cy="7382905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>154994</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>170778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6C9A86-E038-88D5-204B-D2EA95356F1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15665824" y="1030941"/>
+          <a:ext cx="14565758" cy="7230484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>26663</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>98476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5086E03-6762-7091-E7E3-922E0A89A553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15699441" y="8785411"/>
+          <a:ext cx="14403810" cy="7068536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>93347</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>117583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628371A3-3B6B-36FC-F5C8-F3C7F3728C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15699441" y="17346706"/>
+          <a:ext cx="14470494" cy="7468642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,22 +896,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0261B29C-2CB2-489A-A058-236623BD7E79}">
-  <dimension ref="B1:B125"/>
+  <dimension ref="B1:X157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X82" sqref="X82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>3</v>
+      </c>
+      <c r="X41" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
@@ -643,14 +927,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="X126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X157" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
